--- a/SintesisYRecursos.xlsx
+++ b/SintesisYRecursos.xlsx
@@ -7,27 +7,28 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="28455" windowHeight="12540" tabRatio="601"/>
   </bookViews>
   <sheets>
-    <sheet name="Recursos TFM" sheetId="1" r:id="rId1"/>
-    <sheet name="Timing Global" sheetId="4" r:id="rId2"/>
-    <sheet name="Timing Null" sheetId="5" r:id="rId3"/>
-    <sheet name="Timing ES" sheetId="6" r:id="rId4"/>
-    <sheet name="Timing Delay" sheetId="7" r:id="rId5"/>
-    <sheet name="Timing Chorus" sheetId="8" r:id="rId6"/>
-    <sheet name="Timing Vibrato" sheetId="9" r:id="rId7"/>
-    <sheet name="Timing Reverb" sheetId="10" r:id="rId8"/>
-    <sheet name="Timing Eco" sheetId="11" r:id="rId9"/>
-    <sheet name="Timing Looper" sheetId="12" r:id="rId10"/>
-    <sheet name="Timing Overdrive" sheetId="13" r:id="rId11"/>
-    <sheet name="Timing Compressor" sheetId="14" r:id="rId12"/>
-    <sheet name="Timing Filter" sheetId="15" r:id="rId13"/>
-    <sheet name="Timing Config_Reverb" sheetId="16" r:id="rId14"/>
+    <sheet name="Recursos TFM - TSíntesis" sheetId="1" r:id="rId1"/>
+    <sheet name="Recursos TFM - Bits" sheetId="17" r:id="rId2"/>
+    <sheet name="Timing Global" sheetId="4" r:id="rId3"/>
+    <sheet name="Timing Null" sheetId="5" r:id="rId4"/>
+    <sheet name="Timing ES" sheetId="6" r:id="rId5"/>
+    <sheet name="Timing Delay" sheetId="7" r:id="rId6"/>
+    <sheet name="Timing Chorus" sheetId="8" r:id="rId7"/>
+    <sheet name="Timing Vibrato" sheetId="9" r:id="rId8"/>
+    <sheet name="Timing Reverb" sheetId="10" r:id="rId9"/>
+    <sheet name="Timing Eco" sheetId="11" r:id="rId10"/>
+    <sheet name="Timing Looper" sheetId="12" r:id="rId11"/>
+    <sheet name="Timing Overdrive" sheetId="13" r:id="rId12"/>
+    <sheet name="Timing Compressor" sheetId="14" r:id="rId13"/>
+    <sheet name="Timing Filter" sheetId="15" r:id="rId14"/>
+    <sheet name="Timing Config_Reverb" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="221">
   <si>
     <t>ES</t>
   </si>
@@ -675,6 +676,21 @@
   </si>
   <si>
     <t>FF_Total</t>
+  </si>
+  <si>
+    <t>Nº de bits</t>
+  </si>
+  <si>
+    <t>4m 51s</t>
+  </si>
+  <si>
+    <t>4m 28s</t>
+  </si>
+  <si>
+    <t>6m 24s</t>
+  </si>
+  <si>
+    <t>4m 20</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1275,6 +1291,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1411,7 +1436,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$I$25:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1450,7 +1475,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$K$25:$K$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$K$25:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1494,11 +1519,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="124002688"/>
-        <c:axId val="124004224"/>
+        <c:axId val="134682880"/>
+        <c:axId val="134685824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124002688"/>
+        <c:axId val="134682880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,12 +1613,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124004224"/>
+        <c:crossAx val="134685824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124004224"/>
+        <c:axId val="134685824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1667,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124002688"/>
+        <c:crossAx val="134682880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1690,7 +1715,911 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>LUTRAM (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Recursos TFM - Bits'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Recursos TFM - Bits'!$R$6:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>46.473684210526315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.34210526315789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.836842105263159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.031578947368416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="130594304"/>
+        <c:axId val="130600960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130594304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Bits</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130600960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130600960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130594304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>LUT(%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Recursos TFM - Bits'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Recursos TFM - Bits'!$Q$6:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.555205047318612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.71608832807571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.441640378548897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.129337539432179</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.012618296529972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="130648704"/>
+        <c:axId val="130663552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130648704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Bits</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130663552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130663552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130648704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>FF(%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Recursos TFM - Bits'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Recursos TFM - Bits'!$S$6:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16.078075709779181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.780757097791799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.727129337539431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.987381703470032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.051261829652997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="130667648"/>
+        <c:axId val="130767104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130667648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Bits</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130767104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130767104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130667648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1815,7 +2744,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$I$25:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1854,7 +2783,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$J$25:$J$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$J$25:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1898,11 +2827,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="124392960"/>
-        <c:axId val="124394880"/>
+        <c:axId val="135155712"/>
+        <c:axId val="135158016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124392960"/>
+        <c:axId val="135155712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,12 +2915,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124394880"/>
+        <c:crossAx val="135158016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124394880"/>
+        <c:axId val="135158016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,7 +2969,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124392960"/>
+        <c:crossAx val="135155712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2088,7 +3017,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2213,7 +3142,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$I$25:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2252,7 +3181,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$L$25:$L$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$L$25:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2296,11 +3225,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="124599296"/>
-        <c:axId val="124609664"/>
+        <c:axId val="135214208"/>
+        <c:axId val="135216512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124599296"/>
+        <c:axId val="135214208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2384,12 +3313,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124609664"/>
+        <c:crossAx val="135216512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124609664"/>
+        <c:axId val="135216512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,7 +3367,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124599296"/>
+        <c:crossAx val="135214208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2486,7 +3415,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2522,7 +3451,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2611,7 +3539,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$I$25:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2650,7 +3578,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$E$25:$E$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$E$25:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2694,11 +3622,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="125129472"/>
-        <c:axId val="125131392"/>
+        <c:axId val="135670016"/>
+        <c:axId val="135676672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125129472"/>
+        <c:axId val="135670016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,7 +3671,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2782,12 +3709,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125131392"/>
+        <c:crossAx val="135676672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125131392"/>
+        <c:axId val="135676672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2836,7 +3763,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125129472"/>
+        <c:crossAx val="135670016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2884,7 +3811,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2920,7 +3847,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3009,7 +3935,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$I$25:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3048,7 +3974,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$G$25:$G$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$G$25:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3092,11 +4018,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="125151488"/>
-        <c:axId val="125043072"/>
+        <c:axId val="135691648"/>
+        <c:axId val="135706496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125151488"/>
+        <c:axId val="135691648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3141,7 +4067,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3180,12 +4105,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125043072"/>
+        <c:crossAx val="135706496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125043072"/>
+        <c:axId val="135706496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -3235,7 +4160,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125151488"/>
+        <c:crossAx val="135691648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3283,7 +4208,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3319,7 +4244,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3408,7 +4332,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$I$25:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3447,7 +4371,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$S$25:$S$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$S$25:$S$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3491,11 +4415,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="125062144"/>
-        <c:axId val="125093376"/>
+        <c:axId val="135811840"/>
+        <c:axId val="135814144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125062144"/>
+        <c:axId val="135811840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3540,7 +4464,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3585,12 +4508,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125093376"/>
+        <c:crossAx val="135814144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125093376"/>
+        <c:axId val="135814144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3639,7 +4562,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125062144"/>
+        <c:crossAx val="135811840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3687,7 +4610,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3723,7 +4646,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3812,7 +4734,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$I$25:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3851,7 +4773,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$R$25:$R$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$R$25:$R$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3895,11 +4817,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="125198720"/>
-        <c:axId val="125201024"/>
+        <c:axId val="135837568"/>
+        <c:axId val="135868800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125198720"/>
+        <c:axId val="135837568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3944,7 +4866,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3983,12 +4904,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125201024"/>
+        <c:crossAx val="135868800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125201024"/>
+        <c:axId val="135868800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4037,7 +4958,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125198720"/>
+        <c:crossAx val="135837568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4085,7 +5006,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4121,7 +5042,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4210,7 +5130,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$I$25:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4249,7 +5169,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$T$25:$T$34</c:f>
+              <c:f>'Recursos TFM - TSíntesis'!$T$25:$T$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4293,11 +5213,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="125236736"/>
-        <c:axId val="125308928"/>
+        <c:axId val="135883776"/>
+        <c:axId val="135902720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125236736"/>
+        <c:axId val="135883776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4342,7 +5262,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4381,12 +5300,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125308928"/>
+        <c:crossAx val="135902720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125308928"/>
+        <c:axId val="135902720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,7 +5354,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125236736"/>
+        <c:crossAx val="135883776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4483,2720 +5402,304 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo Síntesis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Recursos TFM - Bits'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Recursos TFM - Bits'!$E$6:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.9444444444444442E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9768518518518516E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0370370370370369E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1585648148148149E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3472222222222225E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="130313216"/>
+        <c:axId val="130336256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130313216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bits</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130336256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130336256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130313216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7448,6 +5951,137 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1401534</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>42861</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>80603</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>366592</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1144322</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>20572</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1442357</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>176894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>97291</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14969</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>340180</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1081809</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>55788</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7743,9 +6377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D4:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD56" sqref="AD56"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -9137,28 +7769,28 @@
         <v>35</v>
       </c>
       <c r="B2" s="14">
-        <v>73.264663696289063</v>
+        <v>63.53948974609375</v>
       </c>
       <c r="C2" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" s="15">
-        <v>134</v>
+        <v>14919</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G2" s="14">
-        <v>14.608076095581055</v>
+        <v>24.100044250488281</v>
       </c>
       <c r="H2" s="14">
-        <v>0.51800000667572021</v>
+        <v>1.3320000171661377</v>
       </c>
       <c r="I2" s="14">
-        <v>14.090075492858887</v>
+        <v>22.768043518066406</v>
       </c>
       <c r="J2" s="14">
         <v>88.571426391601563</v>
@@ -9181,28 +7813,28 @@
         <v>40</v>
       </c>
       <c r="B3" s="14">
-        <v>73.601654052734375</v>
+        <v>63.53948974609375</v>
       </c>
       <c r="C3" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" s="15">
-        <v>134</v>
+        <v>14919</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G3" s="14">
-        <v>14.270075798034668</v>
+        <v>24.100044250488281</v>
       </c>
       <c r="H3" s="14">
-        <v>0.51800000667572021</v>
+        <v>1.3320000171661377</v>
       </c>
       <c r="I3" s="14">
-        <v>13.752076148986816</v>
+        <v>22.768043518066406</v>
       </c>
       <c r="J3" s="14">
         <v>88.571426391601563</v>
@@ -9225,28 +7857,28 @@
         <v>42</v>
       </c>
       <c r="B4" s="14">
-        <v>73.937667846679688</v>
+        <v>63.53948974609375</v>
       </c>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="15">
-        <v>134</v>
+        <v>14919</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="G4" s="14">
-        <v>13.932075500488281</v>
+        <v>24.100044250488281</v>
       </c>
       <c r="H4" s="14">
-        <v>0.51800000667572021</v>
+        <v>1.3320000171661377</v>
       </c>
       <c r="I4" s="14">
-        <v>13.41407585144043</v>
+        <v>22.768043518066406</v>
       </c>
       <c r="J4" s="14">
         <v>88.571426391601563</v>
@@ -9269,28 +7901,28 @@
         <v>44</v>
       </c>
       <c r="B5" s="14">
-        <v>74.227867126464844</v>
+        <v>63.53948974609375</v>
       </c>
       <c r="C5" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="15">
-        <v>195</v>
+        <v>14919</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="G5" s="14">
-        <v>13.835273742675781</v>
+        <v>24.100044250488281</v>
       </c>
       <c r="H5" s="14">
-        <v>0.45600003004074097</v>
+        <v>1.3320000171661377</v>
       </c>
       <c r="I5" s="14">
-        <v>13.379273414611816</v>
+        <v>22.768043518066406</v>
       </c>
       <c r="J5" s="14">
         <v>88.571426391601563</v>
@@ -9313,28 +7945,28 @@
         <v>46</v>
       </c>
       <c r="B6" s="14">
-        <v>74.271659851074219</v>
+        <v>63.679359436035156</v>
       </c>
       <c r="C6" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="15">
-        <v>134</v>
+        <v>14919</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="G6" s="14">
-        <v>13.594076156616211</v>
+        <v>23.960174560546875</v>
       </c>
       <c r="H6" s="14">
-        <v>0.51800000667572021</v>
+        <v>1.3320000171661377</v>
       </c>
       <c r="I6" s="14">
-        <v>13.076076507568359</v>
+        <v>22.628175735473633</v>
       </c>
       <c r="J6" s="14">
         <v>88.571426391601563</v>
@@ -9357,28 +7989,28 @@
         <v>48</v>
       </c>
       <c r="B7" s="14">
-        <v>74.575363159179687</v>
+        <v>63.679359436035156</v>
       </c>
       <c r="C7" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="15">
-        <v>195</v>
+        <v>14919</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="G7" s="14">
-        <v>13.492770195007324</v>
+        <v>23.960174560546875</v>
       </c>
       <c r="H7" s="14">
-        <v>0.45600003004074097</v>
+        <v>1.3320000171661377</v>
       </c>
       <c r="I7" s="14">
-        <v>13.036770820617676</v>
+        <v>22.628175735473633</v>
       </c>
       <c r="J7" s="14">
         <v>88.571426391601563</v>
@@ -9401,28 +8033,28 @@
         <v>50</v>
       </c>
       <c r="B8" s="14">
-        <v>74.604660034179688</v>
+        <v>63.679359436035156</v>
       </c>
       <c r="C8" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="15">
-        <v>134</v>
+        <v>14919</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G8" s="14">
-        <v>13.256075859069824</v>
+        <v>23.960174560546875</v>
       </c>
       <c r="H8" s="14">
-        <v>0.51800000667572021</v>
+        <v>1.3320000171661377</v>
       </c>
       <c r="I8" s="14">
-        <v>12.738076210021973</v>
+        <v>22.628175735473633</v>
       </c>
       <c r="J8" s="14">
         <v>88.571426391601563</v>
@@ -9445,28 +8077,28 @@
         <v>52</v>
       </c>
       <c r="B9" s="14">
-        <v>74.732589721679688</v>
+        <v>63.679359436035156</v>
       </c>
       <c r="C9" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="15">
-        <v>195</v>
+        <v>14919</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="G9" s="14">
-        <v>13.339545249938965</v>
+        <v>23.960174560546875</v>
       </c>
       <c r="H9" s="14">
-        <v>0.45600003004074097</v>
+        <v>1.3320000171661377</v>
       </c>
       <c r="I9" s="14">
-        <v>12.883545875549316</v>
+        <v>22.628175735473633</v>
       </c>
       <c r="J9" s="14">
         <v>88.571426391601563</v>
@@ -9489,28 +8121,28 @@
         <v>54</v>
       </c>
       <c r="B10" s="14">
-        <v>74.936660766601563</v>
+        <v>63.821460723876953</v>
       </c>
       <c r="C10" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="15">
-        <v>134</v>
+        <v>14919</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="G10" s="14">
-        <v>12.918076515197754</v>
+        <v>23.812076568603516</v>
       </c>
       <c r="H10" s="14">
-        <v>0.51800000667572021</v>
+        <v>1.3320000171661377</v>
       </c>
       <c r="I10" s="14">
-        <v>12.400076866149902</v>
+        <v>22.480075836181641</v>
       </c>
       <c r="J10" s="14">
         <v>88.571426391601563</v>
@@ -9533,28 +8165,28 @@
         <v>56</v>
       </c>
       <c r="B11" s="14">
-        <v>75.090629577636719</v>
+        <v>63.821460723876953</v>
       </c>
       <c r="C11" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="15">
-        <v>195</v>
+        <v>14919</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="G11" s="14">
-        <v>12.98350715637207</v>
+        <v>23.812076568603516</v>
       </c>
       <c r="H11" s="14">
-        <v>0.45600003004074097</v>
+        <v>1.3320000171661377</v>
       </c>
       <c r="I11" s="14">
-        <v>12.527506828308105</v>
+        <v>22.480075836181641</v>
       </c>
       <c r="J11" s="14">
         <v>88.571426391601563</v>
@@ -9591,8 +8223,7 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="5" max="6" width="31.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
@@ -9651,28 +8282,28 @@
         <v>35</v>
       </c>
       <c r="B2" s="14">
-        <v>79.233299255371094</v>
+        <v>73.264663696289063</v>
       </c>
       <c r="C2" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" s="15">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="G2" s="14">
-        <v>8.9688329696655273</v>
+        <v>14.608076095581055</v>
       </c>
       <c r="H2" s="14">
-        <v>1.5580002069473267</v>
+        <v>0.51800000667572021</v>
       </c>
       <c r="I2" s="14">
-        <v>7.4108338356018066</v>
+        <v>14.090075492858887</v>
       </c>
       <c r="J2" s="14">
         <v>88.571426391601563</v>
@@ -9695,28 +8326,28 @@
         <v>40</v>
       </c>
       <c r="B3" s="14">
-        <v>79.233299255371094</v>
+        <v>73.601654052734375</v>
       </c>
       <c r="C3" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="15">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="G3" s="14">
-        <v>8.9688329696655273</v>
+        <v>14.270075798034668</v>
       </c>
       <c r="H3" s="14">
-        <v>1.5580002069473267</v>
+        <v>0.51800000667572021</v>
       </c>
       <c r="I3" s="14">
-        <v>7.4108338356018066</v>
+        <v>13.752076148986816</v>
       </c>
       <c r="J3" s="14">
         <v>88.571426391601563</v>
@@ -9739,28 +8370,28 @@
         <v>42</v>
       </c>
       <c r="B4" s="14">
-        <v>79.259780883789062</v>
+        <v>73.937667846679688</v>
       </c>
       <c r="C4" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="15">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="G4" s="14">
-        <v>8.9433565139770508</v>
+        <v>13.932075500488281</v>
       </c>
       <c r="H4" s="14">
-        <v>1.5580002069473267</v>
+        <v>0.51800000667572021</v>
       </c>
       <c r="I4" s="14">
-        <v>7.3853569030761719</v>
+        <v>13.41407585144043</v>
       </c>
       <c r="J4" s="14">
         <v>88.571426391601563</v>
@@ -9783,28 +8414,28 @@
         <v>44</v>
       </c>
       <c r="B5" s="14">
-        <v>79.259780883789062</v>
+        <v>74.227867126464844</v>
       </c>
       <c r="C5" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="15">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="G5" s="14">
-        <v>8.9433565139770508</v>
+        <v>13.835273742675781</v>
       </c>
       <c r="H5" s="14">
-        <v>1.5580002069473267</v>
+        <v>0.45600003004074097</v>
       </c>
       <c r="I5" s="14">
-        <v>7.3853569030761719</v>
+        <v>13.379273414611816</v>
       </c>
       <c r="J5" s="14">
         <v>88.571426391601563</v>
@@ -9827,28 +8458,28 @@
         <v>46</v>
       </c>
       <c r="B6" s="14">
-        <v>79.374168395996094</v>
+        <v>74.271659851074219</v>
       </c>
       <c r="C6" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="15">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="G6" s="14">
-        <v>8.8279628753662109</v>
+        <v>13.594076156616211</v>
       </c>
       <c r="H6" s="14">
-        <v>1.5580002069473267</v>
+        <v>0.51800000667572021</v>
       </c>
       <c r="I6" s="14">
-        <v>7.2699637413024902</v>
+        <v>13.076076507568359</v>
       </c>
       <c r="J6" s="14">
         <v>88.571426391601563</v>
@@ -9871,28 +8502,28 @@
         <v>48</v>
       </c>
       <c r="B7" s="14">
-        <v>79.374168395996094</v>
+        <v>74.575363159179687</v>
       </c>
       <c r="C7" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="15">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="G7" s="14">
-        <v>8.8279628753662109</v>
+        <v>13.492770195007324</v>
       </c>
       <c r="H7" s="14">
-        <v>1.5580002069473267</v>
+        <v>0.45600003004074097</v>
       </c>
       <c r="I7" s="14">
-        <v>7.2699637413024902</v>
+        <v>13.036770820617676</v>
       </c>
       <c r="J7" s="14">
         <v>88.571426391601563</v>
@@ -9915,28 +8546,28 @@
         <v>50</v>
       </c>
       <c r="B8" s="14">
-        <v>79.3848876953125</v>
+        <v>74.604660034179688</v>
       </c>
       <c r="C8" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="15">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G8" s="14">
-        <v>8.8392410278320312</v>
+        <v>13.256075859069824</v>
       </c>
       <c r="H8" s="14">
-        <v>1.5580002069473267</v>
+        <v>0.51800000667572021</v>
       </c>
       <c r="I8" s="14">
-        <v>7.2812418937683105</v>
+        <v>12.738076210021973</v>
       </c>
       <c r="J8" s="14">
         <v>88.571426391601563</v>
@@ -9959,28 +8590,28 @@
         <v>52</v>
       </c>
       <c r="B9" s="14">
-        <v>79.389602661132813</v>
+        <v>74.732589721679688</v>
       </c>
       <c r="C9" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="15">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="G9" s="14">
-        <v>8.9095373153686523</v>
+        <v>13.339545249938965</v>
       </c>
       <c r="H9" s="14">
-        <v>1.5580002069473267</v>
+        <v>0.45600003004074097</v>
       </c>
       <c r="I9" s="14">
-        <v>7.3515372276306152</v>
+        <v>12.883545875549316</v>
       </c>
       <c r="J9" s="14">
         <v>88.571426391601563</v>
@@ -10003,28 +8634,28 @@
         <v>54</v>
       </c>
       <c r="B10" s="14">
-        <v>80.039093017578125</v>
+        <v>74.936660766601563</v>
       </c>
       <c r="C10" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" s="15">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="G10" s="14">
-        <v>8.4000387191772461</v>
+        <v>12.918076515197754</v>
       </c>
       <c r="H10" s="14">
-        <v>1.5580002069473267</v>
+        <v>0.51800000667572021</v>
       </c>
       <c r="I10" s="14">
-        <v>6.8420391082763672</v>
+        <v>12.400076866149902</v>
       </c>
       <c r="J10" s="14">
         <v>88.571426391601563</v>
@@ -10047,28 +8678,28 @@
         <v>56</v>
       </c>
       <c r="B11" s="14">
-        <v>80.106910705566406</v>
+        <v>75.090629577636719</v>
       </c>
       <c r="C11" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="15">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G11" s="14">
-        <v>8.3302202224731445</v>
+        <v>12.98350715637207</v>
       </c>
       <c r="H11" s="14">
-        <v>1.3060001134872437</v>
+        <v>0.45600003004074097</v>
       </c>
       <c r="I11" s="14">
-        <v>7.0242209434509277</v>
+        <v>12.527506828308105</v>
       </c>
       <c r="J11" s="14">
         <v>88.571426391601563</v>
@@ -10165,28 +8796,28 @@
         <v>35</v>
       </c>
       <c r="B2" s="14">
-        <v>78.640449523925781</v>
+        <v>79.233299255371094</v>
       </c>
       <c r="C2" s="15">
         <v>5</v>
       </c>
       <c r="D2" s="15">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G2" s="14">
-        <v>9.5646915435791016</v>
+        <v>8.9688329696655273</v>
       </c>
       <c r="H2" s="14">
-        <v>1.3700001239776611</v>
+        <v>1.5580002069473267</v>
       </c>
       <c r="I2" s="14">
-        <v>8.1946907043457031</v>
+        <v>7.4108338356018066</v>
       </c>
       <c r="J2" s="14">
         <v>88.571426391601563</v>
@@ -10209,28 +8840,28 @@
         <v>40</v>
       </c>
       <c r="B3" s="14">
-        <v>78.8297119140625</v>
+        <v>79.233299255371094</v>
       </c>
       <c r="C3" s="15">
         <v>5</v>
       </c>
       <c r="D3" s="15">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="14">
-        <v>9.3754234313964844</v>
+        <v>8.9688329696655273</v>
       </c>
       <c r="H3" s="14">
-        <v>1.3700001239776611</v>
+        <v>1.5580002069473267</v>
       </c>
       <c r="I3" s="14">
-        <v>8.0054216384887695</v>
+        <v>7.4108338356018066</v>
       </c>
       <c r="J3" s="14">
         <v>88.571426391601563</v>
@@ -10253,28 +8884,28 @@
         <v>42</v>
       </c>
       <c r="B4" s="14">
-        <v>79.206657409667969</v>
+        <v>79.259780883789062</v>
       </c>
       <c r="C4" s="15">
         <v>5</v>
       </c>
       <c r="D4" s="15">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G4" s="14">
-        <v>9.0154809951782227</v>
+        <v>8.9433565139770508</v>
       </c>
       <c r="H4" s="14">
-        <v>1.3700001239776611</v>
+        <v>1.5580002069473267</v>
       </c>
       <c r="I4" s="14">
-        <v>7.6454806327819824</v>
+        <v>7.3853569030761719</v>
       </c>
       <c r="J4" s="14">
         <v>88.571426391601563</v>
@@ -10297,28 +8928,28 @@
         <v>44</v>
       </c>
       <c r="B5" s="14">
-        <v>79.206657409667969</v>
+        <v>79.259780883789062</v>
       </c>
       <c r="C5" s="15">
         <v>5</v>
       </c>
       <c r="D5" s="15">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G5" s="14">
-        <v>9.0154809951782227</v>
+        <v>8.9433565139770508</v>
       </c>
       <c r="H5" s="14">
-        <v>1.3700001239776611</v>
+        <v>1.5580002069473267</v>
       </c>
       <c r="I5" s="14">
-        <v>7.6454806327819824</v>
+        <v>7.3853569030761719</v>
       </c>
       <c r="J5" s="14">
         <v>88.571426391601563</v>
@@ -10341,28 +8972,28 @@
         <v>46</v>
       </c>
       <c r="B6" s="14">
-        <v>79.206657409667969</v>
+        <v>79.374168395996094</v>
       </c>
       <c r="C6" s="15">
         <v>5</v>
       </c>
       <c r="D6" s="15">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G6" s="14">
-        <v>9.0154809951782227</v>
+        <v>8.8279628753662109</v>
       </c>
       <c r="H6" s="14">
-        <v>1.3700001239776611</v>
+        <v>1.5580002069473267</v>
       </c>
       <c r="I6" s="14">
-        <v>7.6454806327819824</v>
+        <v>7.2699637413024902</v>
       </c>
       <c r="J6" s="14">
         <v>88.571426391601563</v>
@@ -10385,28 +9016,28 @@
         <v>48</v>
       </c>
       <c r="B7" s="14">
-        <v>79.255050659179688</v>
+        <v>79.374168395996094</v>
       </c>
       <c r="C7" s="15">
         <v>5</v>
       </c>
       <c r="D7" s="15">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G7" s="14">
-        <v>8.9660825729370117</v>
+        <v>8.8279628753662109</v>
       </c>
       <c r="H7" s="14">
-        <v>1.3700001239776611</v>
+        <v>1.5580002069473267</v>
       </c>
       <c r="I7" s="14">
-        <v>7.5960822105407715</v>
+        <v>7.2699637413024902</v>
       </c>
       <c r="J7" s="14">
         <v>88.571426391601563</v>
@@ -10429,28 +9060,28 @@
         <v>50</v>
       </c>
       <c r="B8" s="14">
-        <v>79.255050659179688</v>
+        <v>79.3848876953125</v>
       </c>
       <c r="C8" s="15">
         <v>5</v>
       </c>
       <c r="D8" s="15">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G8" s="14">
-        <v>8.9660825729370117</v>
+        <v>8.8392410278320312</v>
       </c>
       <c r="H8" s="14">
-        <v>1.3700001239776611</v>
+        <v>1.5580002069473267</v>
       </c>
       <c r="I8" s="14">
-        <v>7.5960822105407715</v>
+        <v>7.2812418937683105</v>
       </c>
       <c r="J8" s="14">
         <v>88.571426391601563</v>
@@ -10473,28 +9104,28 @@
         <v>52</v>
       </c>
       <c r="B9" s="14">
-        <v>79.255050659179688</v>
+        <v>79.389602661132813</v>
       </c>
       <c r="C9" s="15">
         <v>5</v>
       </c>
       <c r="D9" s="15">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G9" s="14">
-        <v>8.9660825729370117</v>
+        <v>8.9095373153686523</v>
       </c>
       <c r="H9" s="14">
-        <v>1.3700001239776611</v>
+        <v>1.5580002069473267</v>
       </c>
       <c r="I9" s="14">
-        <v>7.5960822105407715</v>
+        <v>7.3515372276306152</v>
       </c>
       <c r="J9" s="14">
         <v>88.571426391601563</v>
@@ -10517,28 +9148,28 @@
         <v>54</v>
       </c>
       <c r="B10" s="14">
-        <v>79.34539794921875</v>
+        <v>80.039093017578125</v>
       </c>
       <c r="C10" s="15">
         <v>5</v>
       </c>
       <c r="D10" s="15">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="G10" s="14">
-        <v>9.0937395095825195</v>
+        <v>8.4000387191772461</v>
       </c>
       <c r="H10" s="14">
-        <v>1.374000072479248</v>
+        <v>1.5580002069473267</v>
       </c>
       <c r="I10" s="14">
-        <v>7.7197394371032715</v>
+        <v>6.8420391082763672</v>
       </c>
       <c r="J10" s="14">
         <v>88.571426391601563</v>
@@ -10561,28 +9192,28 @@
         <v>56</v>
       </c>
       <c r="B11" s="14">
-        <v>79.355316162109375</v>
+        <v>80.106910705566406</v>
       </c>
       <c r="C11" s="15">
         <v>5</v>
       </c>
       <c r="D11" s="15">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="G11" s="14">
-        <v>9.0858221054077148</v>
+        <v>8.3302202224731445</v>
       </c>
       <c r="H11" s="14">
-        <v>1.374000072479248</v>
+        <v>1.3060001134872437</v>
       </c>
       <c r="I11" s="14">
-        <v>7.7118215560913086</v>
+        <v>7.0242209434509277</v>
       </c>
       <c r="J11" s="14">
         <v>88.571426391601563</v>
@@ -10619,7 +9250,8 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="6" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
@@ -10678,28 +9310,28 @@
         <v>35</v>
       </c>
       <c r="B2" s="14">
-        <v>78.604972839355469</v>
+        <v>78.640449523925781</v>
       </c>
       <c r="C2" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="15">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="G2" s="14">
-        <v>9.3871679306030273</v>
+        <v>9.5646915435791016</v>
       </c>
       <c r="H2" s="14">
-        <v>0.85400009155273438</v>
+        <v>1.3700001239776611</v>
       </c>
       <c r="I2" s="14">
-        <v>8.5331687927246094</v>
+        <v>8.1946907043457031</v>
       </c>
       <c r="J2" s="14">
         <v>88.571426391601563</v>
@@ -10722,28 +9354,28 @@
         <v>40</v>
       </c>
       <c r="B3" s="14">
-        <v>78.604972839355469</v>
+        <v>78.8297119140625</v>
       </c>
       <c r="C3" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="15">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="G3" s="14">
-        <v>9.3871679306030273</v>
+        <v>9.3754234313964844</v>
       </c>
       <c r="H3" s="14">
-        <v>0.85400009155273438</v>
+        <v>1.3700001239776611</v>
       </c>
       <c r="I3" s="14">
-        <v>8.5331687927246094</v>
+        <v>8.0054216384887695</v>
       </c>
       <c r="J3" s="14">
         <v>88.571426391601563</v>
@@ -10766,28 +9398,28 @@
         <v>42</v>
       </c>
       <c r="B4" s="14">
-        <v>78.604972839355469</v>
+        <v>79.206657409667969</v>
       </c>
       <c r="C4" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="15">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="G4" s="14">
-        <v>9.3871679306030273</v>
+        <v>9.0154809951782227</v>
       </c>
       <c r="H4" s="14">
-        <v>0.85400009155273438</v>
+        <v>1.3700001239776611</v>
       </c>
       <c r="I4" s="14">
-        <v>8.5331687927246094</v>
+        <v>7.6454806327819824</v>
       </c>
       <c r="J4" s="14">
         <v>88.571426391601563</v>
@@ -10810,28 +9442,28 @@
         <v>44</v>
       </c>
       <c r="B5" s="14">
-        <v>78.604972839355469</v>
+        <v>79.206657409667969</v>
       </c>
       <c r="C5" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="15">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="G5" s="14">
-        <v>9.3871679306030273</v>
+        <v>9.0154809951782227</v>
       </c>
       <c r="H5" s="14">
-        <v>0.85400009155273438</v>
+        <v>1.3700001239776611</v>
       </c>
       <c r="I5" s="14">
-        <v>8.5331687927246094</v>
+        <v>7.6454806327819824</v>
       </c>
       <c r="J5" s="14">
         <v>88.571426391601563</v>
@@ -10854,28 +9486,28 @@
         <v>46</v>
       </c>
       <c r="B6" s="14">
-        <v>78.640975952148438</v>
+        <v>79.206657409667969</v>
       </c>
       <c r="C6" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="15">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>193</v>
+        <v>68</v>
       </c>
       <c r="G6" s="14">
-        <v>9.3871679306030273</v>
+        <v>9.0154809951782227</v>
       </c>
       <c r="H6" s="14">
-        <v>0.85400009155273438</v>
+        <v>1.3700001239776611</v>
       </c>
       <c r="I6" s="14">
-        <v>8.5331687927246094</v>
+        <v>7.6454806327819824</v>
       </c>
       <c r="J6" s="14">
         <v>88.571426391601563</v>
@@ -10898,28 +9530,28 @@
         <v>48</v>
       </c>
       <c r="B7" s="14">
-        <v>78.640975952148438</v>
+        <v>79.255050659179688</v>
       </c>
       <c r="C7" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="15">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="G7" s="14">
-        <v>9.3871679306030273</v>
+        <v>8.9660825729370117</v>
       </c>
       <c r="H7" s="14">
-        <v>0.85400009155273438</v>
+        <v>1.3700001239776611</v>
       </c>
       <c r="I7" s="14">
-        <v>8.5331687927246094</v>
+        <v>7.5960822105407715</v>
       </c>
       <c r="J7" s="14">
         <v>88.571426391601563</v>
@@ -10942,28 +9574,28 @@
         <v>50</v>
       </c>
       <c r="B8" s="14">
-        <v>78.640975952148438</v>
+        <v>79.255050659179688</v>
       </c>
       <c r="C8" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="15">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="G8" s="14">
-        <v>9.3871679306030273</v>
+        <v>8.9660825729370117</v>
       </c>
       <c r="H8" s="14">
-        <v>0.85400009155273438</v>
+        <v>1.3700001239776611</v>
       </c>
       <c r="I8" s="14">
-        <v>8.5331687927246094</v>
+        <v>7.5960822105407715</v>
       </c>
       <c r="J8" s="14">
         <v>88.571426391601563</v>
@@ -10986,28 +9618,28 @@
         <v>52</v>
       </c>
       <c r="B9" s="14">
-        <v>78.640975952148438</v>
+        <v>79.255050659179688</v>
       </c>
       <c r="C9" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="15">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="G9" s="14">
-        <v>9.3871679306030273</v>
+        <v>8.9660825729370117</v>
       </c>
       <c r="H9" s="14">
-        <v>0.85400009155273438</v>
+        <v>1.3700001239776611</v>
       </c>
       <c r="I9" s="14">
-        <v>8.5331687927246094</v>
+        <v>7.5960822105407715</v>
       </c>
       <c r="J9" s="14">
         <v>88.571426391601563</v>
@@ -11030,28 +9662,28 @@
         <v>54</v>
       </c>
       <c r="B10" s="14">
-        <v>78.954780578613281</v>
+        <v>79.34539794921875</v>
       </c>
       <c r="C10" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="15">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="G10" s="14">
-        <v>9.0713520050048828</v>
+        <v>9.0937395095825195</v>
       </c>
       <c r="H10" s="14">
-        <v>0.85400009155273438</v>
+        <v>1.374000072479248</v>
       </c>
       <c r="I10" s="14">
-        <v>8.217350959777832</v>
+        <v>7.7197394371032715</v>
       </c>
       <c r="J10" s="14">
         <v>88.571426391601563</v>
@@ -11074,28 +9706,28 @@
         <v>56</v>
       </c>
       <c r="B11" s="14">
-        <v>79.169136047363281</v>
+        <v>79.355316162109375</v>
       </c>
       <c r="C11" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="15">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="G11" s="14">
-        <v>8.8200044631958008</v>
+        <v>9.0858221054077148</v>
       </c>
       <c r="H11" s="14">
-        <v>0.85400009155273438</v>
+        <v>1.374000072479248</v>
       </c>
       <c r="I11" s="14">
-        <v>7.9660048484802246</v>
+        <v>7.7118215560913086</v>
       </c>
       <c r="J11" s="14">
         <v>88.571426391601563</v>
@@ -11191,6 +9823,519 @@
         <v>35</v>
       </c>
       <c r="B2" s="14">
+        <v>78.604972839355469</v>
+      </c>
+      <c r="C2" s="15">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15">
+        <v>512</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="14">
+        <v>9.3871679306030273</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.85400009155273438</v>
+      </c>
+      <c r="I2" s="14">
+        <v>8.5331687927246094</v>
+      </c>
+      <c r="J2" s="14">
+        <v>88.571426391601563</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="14">
+        <v>0.12928900122642517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="14">
+        <v>78.604972839355469</v>
+      </c>
+      <c r="C3" s="15">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15">
+        <v>512</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" s="14">
+        <v>9.3871679306030273</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.85400009155273438</v>
+      </c>
+      <c r="I3" s="14">
+        <v>8.5331687927246094</v>
+      </c>
+      <c r="J3" s="14">
+        <v>88.571426391601563</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="14">
+        <v>0.12928900122642517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="14">
+        <v>78.604972839355469</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15">
+        <v>512</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="14">
+        <v>9.3871679306030273</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.85400009155273438</v>
+      </c>
+      <c r="I4" s="14">
+        <v>8.5331687927246094</v>
+      </c>
+      <c r="J4" s="14">
+        <v>88.571426391601563</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0.12928900122642517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="14">
+        <v>78.604972839355469</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3</v>
+      </c>
+      <c r="D5" s="15">
+        <v>512</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="14">
+        <v>9.3871679306030273</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.85400009155273438</v>
+      </c>
+      <c r="I5" s="14">
+        <v>8.5331687927246094</v>
+      </c>
+      <c r="J5" s="14">
+        <v>88.571426391601563</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0.12928900122642517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="14">
+        <v>78.640975952148438</v>
+      </c>
+      <c r="C6" s="15">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15">
+        <v>512</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="14">
+        <v>9.3871679306030273</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.85400009155273438</v>
+      </c>
+      <c r="I6" s="14">
+        <v>8.5331687927246094</v>
+      </c>
+      <c r="J6" s="14">
+        <v>88.571426391601563</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.12928900122642517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="14">
+        <v>78.640975952148438</v>
+      </c>
+      <c r="C7" s="15">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15">
+        <v>512</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="14">
+        <v>9.3871679306030273</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.85400009155273438</v>
+      </c>
+      <c r="I7" s="14">
+        <v>8.5331687927246094</v>
+      </c>
+      <c r="J7" s="14">
+        <v>88.571426391601563</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0.12928900122642517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="14">
+        <v>78.640975952148438</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15">
+        <v>512</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="14">
+        <v>9.3871679306030273</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.85400009155273438</v>
+      </c>
+      <c r="I8" s="14">
+        <v>8.5331687927246094</v>
+      </c>
+      <c r="J8" s="14">
+        <v>88.571426391601563</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0.12928900122642517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="14">
+        <v>78.640975952148438</v>
+      </c>
+      <c r="C9" s="15">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15">
+        <v>512</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="14">
+        <v>9.3871679306030273</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.85400009155273438</v>
+      </c>
+      <c r="I9" s="14">
+        <v>8.5331687927246094</v>
+      </c>
+      <c r="J9" s="14">
+        <v>88.571426391601563</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0.12928900122642517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="14">
+        <v>78.954780578613281</v>
+      </c>
+      <c r="C10" s="15">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15">
+        <v>512</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="14">
+        <v>9.0713520050048828</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.85400009155273438</v>
+      </c>
+      <c r="I10" s="14">
+        <v>8.217350959777832</v>
+      </c>
+      <c r="J10" s="14">
+        <v>88.571426391601563</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0.12928900122642517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="14">
+        <v>79.169136047363281</v>
+      </c>
+      <c r="C11" s="15">
+        <v>3</v>
+      </c>
+      <c r="D11" s="15">
+        <v>512</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="14">
+        <v>8.8200044631958008</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.85400009155273438</v>
+      </c>
+      <c r="I11" s="14">
+        <v>7.9660048484802246</v>
+      </c>
+      <c r="J11" s="14">
+        <v>88.571426391601563</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0.12928900122642517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="14">
         <v>64.47357177734375</v>
       </c>
       <c r="C2" s="15">
@@ -11632,6 +10777,559 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D1:U34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:21">
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+    </row>
+    <row r="3" spans="4:21" ht="15.75" thickBot="1">
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D5" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="T5" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="U5" s="45">
+        <v>63400</v>
+      </c>
+    </row>
+    <row r="6" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D6" s="12">
+        <v>8</v>
+      </c>
+      <c r="E6" s="39">
+        <v>3.9444444444444442E-2</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="19">
+        <v>53.220999999999997</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.224</v>
+      </c>
+      <c r="I6" s="19">
+        <v>13032</v>
+      </c>
+      <c r="J6" s="19">
+        <v>8830</v>
+      </c>
+      <c r="K6" s="19">
+        <v>20387</v>
+      </c>
+      <c r="L6" s="19">
+        <v>128</v>
+      </c>
+      <c r="M6" s="19">
+        <v>4</v>
+      </c>
+      <c r="N6" s="19">
+        <v>53</v>
+      </c>
+      <c r="O6" s="19">
+        <v>2</v>
+      </c>
+      <c r="P6" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="18">
+        <f>I6*100/U5</f>
+        <v>20.555205047318612</v>
+      </c>
+      <c r="R6" s="19">
+        <f>J6*100/U6</f>
+        <v>46.473684210526315</v>
+      </c>
+      <c r="S6" s="20">
+        <f>K6*100/U7</f>
+        <v>16.078075709779181</v>
+      </c>
+      <c r="T6" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="U6" s="47">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="7" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="38">
+        <v>3.9768518518518516E-2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="6">
+        <v>52.176000000000002</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I7" s="6">
+        <v>16938</v>
+      </c>
+      <c r="J7" s="6">
+        <v>11210</v>
+      </c>
+      <c r="K7" s="6">
+        <v>25082</v>
+      </c>
+      <c r="L7" s="6">
+        <v>128</v>
+      </c>
+      <c r="M7" s="6">
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
+        <v>55</v>
+      </c>
+      <c r="O7" s="6">
+        <v>2</v>
+      </c>
+      <c r="P7" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="18">
+        <f>I7*100/U5</f>
+        <v>26.71608832807571</v>
+      </c>
+      <c r="R7" s="19">
+        <f>J7*100/U6</f>
+        <v>59</v>
+      </c>
+      <c r="S7" s="20">
+        <f>K7*100/U7</f>
+        <v>19.780757097791799</v>
+      </c>
+      <c r="T7" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="U7" s="49">
+        <v>126800</v>
+      </c>
+    </row>
+    <row r="8" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D8" s="4">
+        <v>12</v>
+      </c>
+      <c r="E8" s="38">
+        <v>4.0370370370370369E-2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="6">
+        <v>57.51</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I8" s="6">
+        <v>20568</v>
+      </c>
+      <c r="J8" s="6">
+        <v>13555</v>
+      </c>
+      <c r="K8" s="6">
+        <v>28818</v>
+      </c>
+      <c r="L8" s="6">
+        <v>128</v>
+      </c>
+      <c r="M8" s="6">
+        <v>4</v>
+      </c>
+      <c r="N8" s="6">
+        <v>57</v>
+      </c>
+      <c r="O8" s="6">
+        <v>2</v>
+      </c>
+      <c r="P8" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="18">
+        <f>I8*100/U5</f>
+        <v>32.441640378548897</v>
+      </c>
+      <c r="R8" s="19">
+        <f>J8*100/U6</f>
+        <v>71.34210526315789</v>
+      </c>
+      <c r="S8" s="20">
+        <f>K8*100/U7</f>
+        <v>22.727129337539431</v>
+      </c>
+    </row>
+    <row r="9" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D9" s="4">
+        <v>14</v>
+      </c>
+      <c r="E9" s="38">
+        <v>4.1585648148148149E-2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="6">
+        <v>51.622</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I9" s="6">
+        <v>24174</v>
+      </c>
+      <c r="J9" s="6">
+        <v>15929</v>
+      </c>
+      <c r="K9" s="6">
+        <v>31684</v>
+      </c>
+      <c r="L9" s="6">
+        <v>128</v>
+      </c>
+      <c r="M9" s="6">
+        <v>4</v>
+      </c>
+      <c r="N9" s="6">
+        <v>59</v>
+      </c>
+      <c r="O9" s="6">
+        <v>2</v>
+      </c>
+      <c r="P9" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="18">
+        <f>I9*100/U5</f>
+        <v>38.129337539432179</v>
+      </c>
+      <c r="R9" s="19">
+        <f>J9*100/U6</f>
+        <v>83.836842105263159</v>
+      </c>
+      <c r="S9" s="20">
+        <f>K9*100/U7</f>
+        <v>24.987381703470032</v>
+      </c>
+    </row>
+    <row r="10" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D10" s="17">
+        <v>16</v>
+      </c>
+      <c r="E10" s="40">
+        <v>4.3472222222222225E-2</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="26">
+        <v>64.658000000000001</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="I10" s="26">
+        <v>27270</v>
+      </c>
+      <c r="J10" s="26">
+        <v>18246</v>
+      </c>
+      <c r="K10" s="26">
+        <v>34301</v>
+      </c>
+      <c r="L10" s="26">
+        <v>128</v>
+      </c>
+      <c r="M10" s="26">
+        <v>4</v>
+      </c>
+      <c r="N10" s="26">
+        <v>61</v>
+      </c>
+      <c r="O10" s="26">
+        <v>2</v>
+      </c>
+      <c r="P10" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="50">
+        <f>I10*100/U5</f>
+        <v>43.012618296529972</v>
+      </c>
+      <c r="R10" s="51">
+        <f>J10*100/U6</f>
+        <v>96.031578947368416</v>
+      </c>
+      <c r="S10" s="52">
+        <f>K10*100/U7</f>
+        <v>27.051261829652997</v>
+      </c>
+    </row>
+    <row r="11" spans="4:21">
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="4:21">
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="4:21">
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="4:21">
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="4:21">
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="4:21">
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="4:16">
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="4:16">
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="4:16">
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
+    <row r="33" spans="4:16">
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="4:16">
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -12145,7 +11843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -12659,7 +12357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -13173,7 +12871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -13687,7 +13385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -14200,7 +13898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -14692,519 +14390,6 @@
       </c>
       <c r="I11" s="14">
         <v>22.990468978881836</v>
-      </c>
-      <c r="J11" s="14">
-        <v>88.571426391601563</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0.12928900122642517</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="14">
-        <v>74.114837646484375</v>
-      </c>
-      <c r="C2" s="15">
-        <v>3</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1677</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="14">
-        <v>13.459298133850098</v>
-      </c>
-      <c r="H2" s="14">
-        <v>1.0889999866485596</v>
-      </c>
-      <c r="I2" s="14">
-        <v>12.370297431945801</v>
-      </c>
-      <c r="J2" s="14">
-        <v>88.571426391601563</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="14">
-        <v>0.12928900122642517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="14">
-        <v>74.114837646484375</v>
-      </c>
-      <c r="C3" s="15">
-        <v>3</v>
-      </c>
-      <c r="D3" s="15">
-        <v>1677</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="14">
-        <v>13.459298133850098</v>
-      </c>
-      <c r="H3" s="14">
-        <v>1.0889999866485596</v>
-      </c>
-      <c r="I3" s="14">
-        <v>12.370297431945801</v>
-      </c>
-      <c r="J3" s="14">
-        <v>88.571426391601563</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="14">
-        <v>0.12928900122642517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="14">
-        <v>74.114837646484375</v>
-      </c>
-      <c r="C4" s="15">
-        <v>3</v>
-      </c>
-      <c r="D4" s="15">
-        <v>1677</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="14">
-        <v>13.459298133850098</v>
-      </c>
-      <c r="H4" s="14">
-        <v>1.0889999866485596</v>
-      </c>
-      <c r="I4" s="14">
-        <v>12.370297431945801</v>
-      </c>
-      <c r="J4" s="14">
-        <v>88.571426391601563</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="14">
-        <v>0.12928900122642517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="14">
-        <v>74.114837646484375</v>
-      </c>
-      <c r="C5" s="15">
-        <v>3</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1677</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="14">
-        <v>13.459298133850098</v>
-      </c>
-      <c r="H5" s="14">
-        <v>1.0889999866485596</v>
-      </c>
-      <c r="I5" s="14">
-        <v>12.370297431945801</v>
-      </c>
-      <c r="J5" s="14">
-        <v>88.571426391601563</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0.12928900122642517</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="14">
-        <v>74.282081604003906</v>
-      </c>
-      <c r="C6" s="15">
-        <v>3</v>
-      </c>
-      <c r="D6" s="15">
-        <v>1677</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="14">
-        <v>13.292050361633301</v>
-      </c>
-      <c r="H6" s="14">
-        <v>1.0889999866485596</v>
-      </c>
-      <c r="I6" s="14">
-        <v>12.203049659729004</v>
-      </c>
-      <c r="J6" s="14">
-        <v>88.571426391601563</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0.12928900122642517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="14">
-        <v>74.282081604003906</v>
-      </c>
-      <c r="C7" s="15">
-        <v>3</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1677</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="14">
-        <v>13.292050361633301</v>
-      </c>
-      <c r="H7" s="14">
-        <v>1.0889999866485596</v>
-      </c>
-      <c r="I7" s="14">
-        <v>12.203049659729004</v>
-      </c>
-      <c r="J7" s="14">
-        <v>88.571426391601563</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0.12928900122642517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="14">
-        <v>74.282081604003906</v>
-      </c>
-      <c r="C8" s="15">
-        <v>3</v>
-      </c>
-      <c r="D8" s="15">
-        <v>1677</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="14">
-        <v>13.292050361633301</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1.0889999866485596</v>
-      </c>
-      <c r="I8" s="14">
-        <v>12.203049659729004</v>
-      </c>
-      <c r="J8" s="14">
-        <v>88.571426391601563</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0.12928900122642517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="14">
-        <v>74.282081604003906</v>
-      </c>
-      <c r="C9" s="15">
-        <v>3</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1677</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="14">
-        <v>13.292050361633301</v>
-      </c>
-      <c r="H9" s="14">
-        <v>1.0889999866485596</v>
-      </c>
-      <c r="I9" s="14">
-        <v>12.203049659729004</v>
-      </c>
-      <c r="J9" s="14">
-        <v>88.571426391601563</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0.12928900122642517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="14">
-        <v>74.330764770507813</v>
-      </c>
-      <c r="C10" s="15">
-        <v>3</v>
-      </c>
-      <c r="D10" s="15">
-        <v>1677</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="14">
-        <v>13.248370170593262</v>
-      </c>
-      <c r="H10" s="14">
-        <v>1.0889999866485596</v>
-      </c>
-      <c r="I10" s="14">
-        <v>12.159370422363281</v>
-      </c>
-      <c r="J10" s="14">
-        <v>88.571426391601563</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0.12928900122642517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="14">
-        <v>74.330764770507813</v>
-      </c>
-      <c r="C11" s="15">
-        <v>3</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1677</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="14">
-        <v>13.248370170593262</v>
-      </c>
-      <c r="H11" s="14">
-        <v>1.0889999866485596</v>
-      </c>
-      <c r="I11" s="14">
-        <v>12.159370422363281</v>
       </c>
       <c r="J11" s="14">
         <v>88.571426391601563</v>
@@ -15300,28 +14485,28 @@
         <v>35</v>
       </c>
       <c r="B2" s="14">
-        <v>63.53948974609375</v>
+        <v>74.114837646484375</v>
       </c>
       <c r="C2" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="15">
-        <v>14919</v>
+        <v>1677</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="G2" s="14">
-        <v>24.100044250488281</v>
+        <v>13.459298133850098</v>
       </c>
       <c r="H2" s="14">
-        <v>1.3320000171661377</v>
+        <v>1.0889999866485596</v>
       </c>
       <c r="I2" s="14">
-        <v>22.768043518066406</v>
+        <v>12.370297431945801</v>
       </c>
       <c r="J2" s="14">
         <v>88.571426391601563</v>
@@ -15344,28 +14529,28 @@
         <v>40</v>
       </c>
       <c r="B3" s="14">
-        <v>63.53948974609375</v>
+        <v>74.114837646484375</v>
       </c>
       <c r="C3" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="15">
-        <v>14919</v>
+        <v>1677</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="G3" s="14">
-        <v>24.100044250488281</v>
+        <v>13.459298133850098</v>
       </c>
       <c r="H3" s="14">
-        <v>1.3320000171661377</v>
+        <v>1.0889999866485596</v>
       </c>
       <c r="I3" s="14">
-        <v>22.768043518066406</v>
+        <v>12.370297431945801</v>
       </c>
       <c r="J3" s="14">
         <v>88.571426391601563</v>
@@ -15388,28 +14573,28 @@
         <v>42</v>
       </c>
       <c r="B4" s="14">
-        <v>63.53948974609375</v>
+        <v>74.114837646484375</v>
       </c>
       <c r="C4" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="15">
-        <v>14919</v>
+        <v>1677</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="G4" s="14">
-        <v>24.100044250488281</v>
+        <v>13.459298133850098</v>
       </c>
       <c r="H4" s="14">
-        <v>1.3320000171661377</v>
+        <v>1.0889999866485596</v>
       </c>
       <c r="I4" s="14">
-        <v>22.768043518066406</v>
+        <v>12.370297431945801</v>
       </c>
       <c r="J4" s="14">
         <v>88.571426391601563</v>
@@ -15432,28 +14617,28 @@
         <v>44</v>
       </c>
       <c r="B5" s="14">
-        <v>63.53948974609375</v>
+        <v>74.114837646484375</v>
       </c>
       <c r="C5" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="15">
-        <v>14919</v>
+        <v>1677</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="G5" s="14">
-        <v>24.100044250488281</v>
+        <v>13.459298133850098</v>
       </c>
       <c r="H5" s="14">
-        <v>1.3320000171661377</v>
+        <v>1.0889999866485596</v>
       </c>
       <c r="I5" s="14">
-        <v>22.768043518066406</v>
+        <v>12.370297431945801</v>
       </c>
       <c r="J5" s="14">
         <v>88.571426391601563</v>
@@ -15476,28 +14661,28 @@
         <v>46</v>
       </c>
       <c r="B6" s="14">
-        <v>63.679359436035156</v>
+        <v>74.282081604003906</v>
       </c>
       <c r="C6" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="15">
-        <v>14919</v>
+        <v>1677</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="G6" s="14">
-        <v>23.960174560546875</v>
+        <v>13.292050361633301</v>
       </c>
       <c r="H6" s="14">
-        <v>1.3320000171661377</v>
+        <v>1.0889999866485596</v>
       </c>
       <c r="I6" s="14">
-        <v>22.628175735473633</v>
+        <v>12.203049659729004</v>
       </c>
       <c r="J6" s="14">
         <v>88.571426391601563</v>
@@ -15520,28 +14705,28 @@
         <v>48</v>
       </c>
       <c r="B7" s="14">
-        <v>63.679359436035156</v>
+        <v>74.282081604003906</v>
       </c>
       <c r="C7" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="15">
-        <v>14919</v>
+        <v>1677</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="G7" s="14">
-        <v>23.960174560546875</v>
+        <v>13.292050361633301</v>
       </c>
       <c r="H7" s="14">
-        <v>1.3320000171661377</v>
+        <v>1.0889999866485596</v>
       </c>
       <c r="I7" s="14">
-        <v>22.628175735473633</v>
+        <v>12.203049659729004</v>
       </c>
       <c r="J7" s="14">
         <v>88.571426391601563</v>
@@ -15564,28 +14749,28 @@
         <v>50</v>
       </c>
       <c r="B8" s="14">
-        <v>63.679359436035156</v>
+        <v>74.282081604003906</v>
       </c>
       <c r="C8" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="15">
-        <v>14919</v>
+        <v>1677</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="G8" s="14">
-        <v>23.960174560546875</v>
+        <v>13.292050361633301</v>
       </c>
       <c r="H8" s="14">
-        <v>1.3320000171661377</v>
+        <v>1.0889999866485596</v>
       </c>
       <c r="I8" s="14">
-        <v>22.628175735473633</v>
+        <v>12.203049659729004</v>
       </c>
       <c r="J8" s="14">
         <v>88.571426391601563</v>
@@ -15608,28 +14793,28 @@
         <v>52</v>
       </c>
       <c r="B9" s="14">
-        <v>63.679359436035156</v>
+        <v>74.282081604003906</v>
       </c>
       <c r="C9" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="15">
-        <v>14919</v>
+        <v>1677</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="G9" s="14">
-        <v>23.960174560546875</v>
+        <v>13.292050361633301</v>
       </c>
       <c r="H9" s="14">
-        <v>1.3320000171661377</v>
+        <v>1.0889999866485596</v>
       </c>
       <c r="I9" s="14">
-        <v>22.628175735473633</v>
+        <v>12.203049659729004</v>
       </c>
       <c r="J9" s="14">
         <v>88.571426391601563</v>
@@ -15652,28 +14837,28 @@
         <v>54</v>
       </c>
       <c r="B10" s="14">
-        <v>63.821460723876953</v>
+        <v>74.330764770507813</v>
       </c>
       <c r="C10" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="15">
-        <v>14919</v>
+        <v>1677</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="G10" s="14">
-        <v>23.812076568603516</v>
+        <v>13.248370170593262</v>
       </c>
       <c r="H10" s="14">
-        <v>1.3320000171661377</v>
+        <v>1.0889999866485596</v>
       </c>
       <c r="I10" s="14">
-        <v>22.480075836181641</v>
+        <v>12.159370422363281</v>
       </c>
       <c r="J10" s="14">
         <v>88.571426391601563</v>
@@ -15696,28 +14881,28 @@
         <v>56</v>
       </c>
       <c r="B11" s="14">
-        <v>63.821460723876953</v>
+        <v>74.330764770507813</v>
       </c>
       <c r="C11" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="15">
-        <v>14919</v>
+        <v>1677</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="G11" s="14">
-        <v>23.812076568603516</v>
+        <v>13.248370170593262</v>
       </c>
       <c r="H11" s="14">
-        <v>1.3320000171661377</v>
+        <v>1.0889999866485596</v>
       </c>
       <c r="I11" s="14">
-        <v>22.480075836181641</v>
+        <v>12.159370422363281</v>
       </c>
       <c r="J11" s="14">
         <v>88.571426391601563</v>

--- a/SintesisYRecursos.xlsx
+++ b/SintesisYRecursos.xlsx
@@ -684,13 +684,13 @@
     <t>4m 51s</t>
   </si>
   <si>
-    <t>4m 28s</t>
-  </si>
-  <si>
     <t>6m 24s</t>
   </si>
   <si>
-    <t>4m 20</t>
+    <t>3m 40</t>
+  </si>
+  <si>
+    <t>4m 16s</t>
   </si>
 </sst>
 </file>
@@ -1519,11 +1519,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="134682880"/>
-        <c:axId val="134685824"/>
+        <c:axId val="125123968"/>
+        <c:axId val="124986880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134682880"/>
+        <c:axId val="125123968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,12 +1613,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134685824"/>
+        <c:crossAx val="124986880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134685824"/>
+        <c:axId val="124986880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1667,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134682880"/>
+        <c:crossAx val="125123968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1715,7 +1715,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1817,11 +1817,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="130594304"/>
-        <c:axId val="130600960"/>
+        <c:axId val="126433920"/>
+        <c:axId val="126448384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130594304"/>
+        <c:axId val="126433920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -1913,12 +1913,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130600960"/>
+        <c:crossAx val="126448384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130600960"/>
+        <c:axId val="126448384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130594304"/>
+        <c:crossAx val="126433920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2015,7 +2015,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2117,11 +2117,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="130648704"/>
-        <c:axId val="130663552"/>
+        <c:axId val="126476288"/>
+        <c:axId val="126478208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130648704"/>
+        <c:axId val="126476288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -2207,12 +2207,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130663552"/>
+        <c:crossAx val="126478208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130663552"/>
+        <c:axId val="126478208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,7 +2261,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130648704"/>
+        <c:crossAx val="126476288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2309,7 +2309,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2411,11 +2411,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="130667648"/>
-        <c:axId val="130767104"/>
+        <c:axId val="126641280"/>
+        <c:axId val="126643200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130667648"/>
+        <c:axId val="126641280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -2517,12 +2517,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130767104"/>
+        <c:crossAx val="126643200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130767104"/>
+        <c:axId val="126643200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,7 +2571,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130667648"/>
+        <c:crossAx val="126641280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2619,7 +2619,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2827,11 +2827,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="135155712"/>
-        <c:axId val="135158016"/>
+        <c:axId val="125030784"/>
+        <c:axId val="125033088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135155712"/>
+        <c:axId val="125030784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2915,12 +2915,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135158016"/>
+        <c:crossAx val="125033088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135158016"/>
+        <c:axId val="125033088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2969,7 +2969,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135155712"/>
+        <c:crossAx val="125030784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3017,7 +3017,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3225,11 +3225,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="135214208"/>
-        <c:axId val="135216512"/>
+        <c:axId val="125969920"/>
+        <c:axId val="125976576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135214208"/>
+        <c:axId val="125969920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3313,12 +3313,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135216512"/>
+        <c:crossAx val="125976576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135216512"/>
+        <c:axId val="125976576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3367,7 +3367,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135214208"/>
+        <c:crossAx val="125969920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3415,7 +3415,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3622,11 +3622,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="135670016"/>
-        <c:axId val="135676672"/>
+        <c:axId val="125840000"/>
+        <c:axId val="125842560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135670016"/>
+        <c:axId val="125840000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3709,12 +3709,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135676672"/>
+        <c:crossAx val="125842560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135676672"/>
+        <c:axId val="125842560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3763,7 +3763,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135670016"/>
+        <c:crossAx val="125840000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3811,7 +3811,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4018,11 +4018,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="135691648"/>
-        <c:axId val="135706496"/>
+        <c:axId val="125865984"/>
+        <c:axId val="125868288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135691648"/>
+        <c:axId val="125865984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4105,12 +4105,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135706496"/>
+        <c:crossAx val="125868288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135706496"/>
+        <c:axId val="125868288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -4160,7 +4160,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135691648"/>
+        <c:crossAx val="125865984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4208,7 +4208,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4415,11 +4415,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="135811840"/>
-        <c:axId val="135814144"/>
+        <c:axId val="126309504"/>
+        <c:axId val="126311808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135811840"/>
+        <c:axId val="126309504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4508,12 +4508,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135814144"/>
+        <c:crossAx val="126311808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135814144"/>
+        <c:axId val="126311808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4562,7 +4562,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135811840"/>
+        <c:crossAx val="126309504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4610,7 +4610,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4817,11 +4817,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="135837568"/>
-        <c:axId val="135868800"/>
+        <c:axId val="126331136"/>
+        <c:axId val="126227200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135837568"/>
+        <c:axId val="126331136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4904,12 +4904,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135868800"/>
+        <c:crossAx val="126227200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135868800"/>
+        <c:axId val="126227200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4958,7 +4958,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135837568"/>
+        <c:crossAx val="126331136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5006,7 +5006,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5213,11 +5213,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="135883776"/>
-        <c:axId val="135902720"/>
+        <c:axId val="126254464"/>
+        <c:axId val="126273408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135883776"/>
+        <c:axId val="126254464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5300,12 +5300,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135902720"/>
+        <c:crossAx val="126273408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135902720"/>
+        <c:axId val="126273408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5354,7 +5354,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135883776"/>
+        <c:crossAx val="126254464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5402,7 +5402,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5485,10 +5485,10 @@
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.9444444444444442E-2</c:v>
+                  <c:v>3.876157407407408E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9768518518518516E-2</c:v>
+                  <c:v>3.982638888888889E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.0370370370370369E-2</c:v>
@@ -5504,11 +5504,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="130313216"/>
-        <c:axId val="130336256"/>
+        <c:axId val="126408192"/>
+        <c:axId val="126410112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130313216"/>
+        <c:axId val="126408192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -5594,12 +5594,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130336256"/>
+        <c:crossAx val="126410112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130336256"/>
+        <c:axId val="126410112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5648,7 +5648,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130313216"/>
+        <c:crossAx val="126408192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5696,7 +5696,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6377,11 +6377,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D4:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -10780,7 +10780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -10885,10 +10885,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="39">
-        <v>3.9444444444444442E-2</v>
+        <v>3.876157407407408E-2</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G6" s="19">
         <v>53.220999999999997</v>
@@ -10944,10 +10944,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="38">
-        <v>3.9768518518518516E-2</v>
+        <v>3.982638888888889E-2</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G7" s="6">
         <v>52.176000000000002</v>
@@ -11059,7 +11059,7 @@
         <v>4.1585648148148149E-2</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G9" s="6">
         <v>51.622</v>
